--- a/knndiabetes.xlsx
+++ b/knndiabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BahanKuliahAI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A6001-106C-4938-B15A-D0412B86D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F64104-22BC-425E-8198-D7E98357DFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4317CCE6-DAA2-42D0-91CC-691763487366}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +535,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>128</v>
       </c>
